--- a/tables/all_caps.xlsx
+++ b/tables/all_caps.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
